--- a/backend/data/SelectedTeams.xlsx
+++ b/backend/data/SelectedTeams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\REGISTRATION\Ideacraft\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB093D73-1E28-406C-B146-D7E1E7D6610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B571A7-CE64-4DEB-B4AF-EB61E9350369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C75081FB-D013-4423-A80D-A059B28C206D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="147">
   <si>
     <t>Malnad college of engineering</t>
   </si>
@@ -459,6 +459,15 @@
   <si>
     <t>Member4</t>
   </si>
+  <si>
+    <t>Dhanyatha</t>
+  </si>
+  <si>
+    <t>Bhavana Hedge</t>
+  </si>
+  <si>
+    <t>Harshitha</t>
+  </si>
 </sst>
 </file>
 
@@ -806,7 +815,7 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -957,9 +966,15 @@
       <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>78</v>
       </c>
@@ -1407,7 +1422,9 @@
       <c r="E15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
